--- a/Track/MyTracker.xlsx
+++ b/Track/MyTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="In Hand" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Mentor Graphics</t>
   </si>
@@ -242,12 +242,28 @@
     <t>On carre site of MicroFocus workday
 hrudwik@gmail.com</t>
   </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>Tricentis</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>1. Contacted by recruiter  
+"Mayuri Girdhar"</t>
+  </si>
+  <si>
+    <t>Contacted on 2nd Jan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +285,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -303,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -345,6 +368,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,53 +750,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -776,10 +805,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,150 +871,199 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>2</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Track/MyTracker.xlsx
+++ b/Track/MyTracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>Mentor Graphics</t>
   </si>
@@ -113,27 +113,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Telephone Screening Interview Scheduled on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6th Jan 2019</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Round 1: Passed first written test (Apti + English)
-2. Round 2: Solved C++ assignment and submitted on 4th Jan 2019
-Me: Waiting for the 2nd Round result</t>
-  </si>
-  <si>
     <t>Microsoft</t>
   </si>
   <si>
@@ -211,12 +190,6 @@
     <t>Auto Desk</t>
   </si>
   <si>
-    <t>1. Mayank Malukani</t>
-  </si>
-  <si>
-    <t>He need to talk to HR</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -257,6 +230,50 @@
   </si>
   <si>
     <t>Contacted on 2nd Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mayank Malukani
+</t>
+  </si>
+  <si>
+    <t>HR responded, and collected my current offer details.
+I askd to match salary.
+I am waiting for her call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.. Round 1: Gave the interview. Went good, 
+   Answered DS and Algo questions perfectly. However couldn't much answer few questions related to tech specific.
+Like diff b/w websocket and rest-api. Clousers in NodeJS, interitance in Python vs c++, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Round 1: Passed first written test (Apti + English)
+2. Round 2: Solved C++ assignment and submitted on 4th Jan 2019
+3. Round 3: 7th Jan @2 PM
+</t>
+  </si>
+  <si>
+    <t>Aruti (un known company)</t>
+  </si>
+  <si>
+    <t>Interview 4 PM tomorrow</t>
+  </si>
+  <si>
+    <t>Need to call and confirm the date</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Fee Reimbusement for continued educaion?</t>
+  </si>
+  <si>
+    <t>Wait for the result 
+1-2 days
+(follow up back on 9th Jan)
+Ask Deeksha</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -326,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -343,37 +360,40 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,86 +737,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="17.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="17.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="15"/>
     <col min="6" max="8" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -807,213 +850,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="12.28515625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="12.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1038,20 +1081,20 @@
     <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1060,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Track/MyTracker.xlsx
+++ b/Track/MyTracker.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hudwik\Desktop\Desktop\My GIt\Data_structures\Track\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrudwik_dhulipalla\Desktop\mine\My GIt\Data_structures\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41740FD-0C83-48BF-9606-1EC1BB2EFB1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="In Hand" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>Mentor Graphics</t>
   </si>
@@ -246,40 +247,62 @@
 Like diff b/w websocket and rest-api. Clousers in NodeJS, interitance in Python vs c++, </t>
   </si>
   <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Round 1: Passed first written test (Apti + English)
 2. Round 2: Solved C++ assignment and submitted on 4th Jan 2019
-3. Round 3: 7th Jan @2 PM
+3. Round 3: 8th Jan @2 PM
 </t>
   </si>
   <si>
-    <t>Aruti (un known company)</t>
-  </si>
-  <si>
-    <t>Interview 4 PM tomorrow</t>
-  </si>
-  <si>
-    <t>Need to call and confirm the date</t>
-  </si>
-  <si>
-    <t>Waiting</t>
-  </si>
-  <si>
-    <t>Fee Reimbusement for continued educaion?</t>
+    <t>1. 1st round done, went well (30mins round)</t>
+  </si>
+  <si>
+    <t>Wait for the result max till 17th Jan</t>
+  </si>
+  <si>
+    <t>s.no</t>
+  </si>
+  <si>
+    <t>Fee Reimbusement for continued educaion?
+Ask Deeksha</t>
   </si>
   <si>
     <t>Wait for the result 
 1-2 days
 (follow up back on 9th Jan)
-Ask Deeksha</t>
-  </si>
-  <si>
-    <t>s</t>
+Sunita Melwani @mail n contacts</t>
+  </si>
+  <si>
+    <t>Dream11</t>
+  </si>
+  <si>
+    <t>Need to give test on weekend</t>
+  </si>
+  <si>
+    <t>Kaajal HR mail n linkedin</t>
+  </si>
+  <si>
+    <t>follow up today</t>
+  </si>
+  <si>
+    <t>1. Reffed by Ramkrishna Kulkarni
+And Lead tring to get me an interview
+(Nitesh Dewani), (Manish Kumar Jha)</t>
+  </si>
+  <si>
+    <t>Applied for one position
+(follow up)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -394,6 +417,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -736,11 +765,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +784,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -770,15 +799,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>64</v>
@@ -787,58 +816,75 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>17</v>
+      <c r="B3" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>62</v>
+      <c r="E6" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -847,11 +893,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +905,7 @@
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="12.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="20" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -873,7 +919,7 @@
       <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -890,7 +936,7 @@
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -907,161 +953,175 @@
       <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1069,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Track/MyTracker.xlsx
+++ b/Track/MyTracker.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrudwik_dhulipalla\Desktop\mine\My GIt\Data_structures\Track\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hudwik\Desktop\Desktop\My GIt\Data_structures\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41740FD-0C83-48BF-9606-1EC1BB2EFB1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="In Hand" sheetId="1" r:id="rId1"/>
     <sheet name="In Progress" sheetId="2" r:id="rId2"/>
     <sheet name="Applied and waiting" sheetId="3" r:id="rId3"/>
-    <sheet name="To be applied" sheetId="4" r:id="rId4"/>
+    <sheet name="Rejected" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>Mentor Graphics</t>
   </si>
@@ -153,9 +152,6 @@
     <t>1. Lokender sent my resume to the recruiter</t>
   </si>
   <si>
-    <t>Internal, can't check status</t>
-  </si>
-  <si>
     <t>Expedia</t>
   </si>
   <si>
@@ -242,46 +238,10 @@
 I am waiting for her call</t>
   </si>
   <si>
-    <t xml:space="preserve">1.. Round 1: Gave the interview. Went good, 
-   Answered DS and Algo questions perfectly. However couldn't much answer few questions related to tech specific.
-Like diff b/w websocket and rest-api. Clousers in NodeJS, interitance in Python vs c++, </t>
-  </si>
-  <si>
-    <t>Waiting</t>
-  </si>
-  <si>
     <t>Oracle</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Round 1: Passed first written test (Apti + English)
-2. Round 2: Solved C++ assignment and submitted on 4th Jan 2019
-3. Round 3: 8th Jan @2 PM
-</t>
-  </si>
-  <si>
-    <t>1. 1st round done, went well (30mins round)</t>
-  </si>
-  <si>
-    <t>Wait for the result max till 17th Jan</t>
-  </si>
-  <si>
-    <t>s.no</t>
-  </si>
-  <si>
-    <t>Fee Reimbusement for continued educaion?
-Ask Deeksha</t>
-  </si>
-  <si>
-    <t>Wait for the result 
-1-2 days
-(follow up back on 9th Jan)
-Sunita Melwani @mail n contacts</t>
-  </si>
-  <si>
     <t>Dream11</t>
-  </si>
-  <si>
-    <t>Need to give test on weekend</t>
   </si>
   <si>
     <t>Kaajal HR mail n linkedin</t>
@@ -297,12 +257,63 @@
   <si>
     <t>Applied for one position
 (follow up)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Round 1: Passed first written test (Apti + English)
+2. Round 2: Solved C++ assignment and submitted on 4th Jan 2019
+3. Round 3: Is completed, went average - good. Can be forwarded to nxt round.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fee Reimbusement for continued educaion?
+Ask Deeksha
+</t>
+  </si>
+  <si>
+    <t>Waiting for HR response</t>
+  </si>
+  <si>
+    <t>Need to call HR</t>
+  </si>
+  <si>
+    <t>Soroco</t>
+  </si>
+  <si>
+    <t>1: Hackerrank test, yet to take</t>
+  </si>
+  <si>
+    <t>Asked me to take hackerrank test</t>
+  </si>
+  <si>
+    <t>Failed in Hackerrank test</t>
+  </si>
+  <si>
+    <t>Rejected in Interview</t>
+  </si>
+  <si>
+    <t>Cleared First round 
+2. Waiting for response from Hiring manager
+Sunita Melwani @mail n contacts</t>
+  </si>
+  <si>
+    <t>1.. Round 1: Gave the interview. Went good, 
+Answered DS and Algo questions perfectly. However couldn't much answer few questions related to tech specific.
+Like diff b/w websocket and rest-api. Clousers in NodeJS, interitance in Python vs c++. (It is automation based company, they do automate testcases for other self-drife company)
+2. Gave 2nd rund. Went good but not very great. Asked genral questions related my current project.</t>
+  </si>
+  <si>
+    <t>1. 1st round done, went well (30mins round)
+2. multiple rouunds @Office (2Hrs). Scheduled on Tuesday 2-4 PM</t>
+  </si>
+  <si>
+    <t>Qualified 1st round.
+Waiting for 2nd round invite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -397,23 +408,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -422,7 +436,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,7 +717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -765,147 +779,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="10"/>
     <col min="2" max="2" width="17.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="15"/>
+    <col min="3" max="3" width="39.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="14" customWidth="1"/>
     <col min="6" max="8" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>58</v>
+      <c r="E5" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="12.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="18" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -919,8 +915,8 @@
       <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>42</v>
+      <c r="D1" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>14</v>
@@ -936,8 +932,8 @@
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>43</v>
+      <c r="D2" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>22</v>
@@ -951,44 +947,44 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>50</v>
+      <c r="B4" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1001,8 +997,8 @@
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>44</v>
+      <c r="D6" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
@@ -1018,8 +1014,8 @@
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>45</v>
+      <c r="D7" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>27</v>
@@ -1035,11 +1031,11 @@
       <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1047,16 +1043,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1064,42 +1060,42 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1107,16 +1103,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1129,41 +1125,82 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="2" max="2" width="14.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
+      <c r="B2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Track/MyTracker.xlsx
+++ b/Track/MyTracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>Mentor Graphics</t>
   </si>
@@ -68,10 +68,6 @@
     <t>Goldman Sachs</t>
   </si>
   <si>
-    <t>Test participated on 
-(12/28/2019)</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -84,9 +80,178 @@
     <t>VizExperts</t>
   </si>
   <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Math Works</t>
+  </si>
+  <si>
+    <t>Check on career site
+hrudwik@yahoo.com</t>
+  </si>
+  <si>
+    <t>Check on career site
+hrudwik@yahoo.com,
+(login with MS account)</t>
+  </si>
+  <si>
+    <t>Multiple referrals
+1. Murali Krishna (3 jobs)
+2. Remind Mukesh Dhaker to refer on Monday (6th Jan)</t>
+  </si>
+  <si>
+    <t>1. Referred by Ashita gupta</t>
+  </si>
+  <si>
+    <t>Cadence</t>
+  </si>
+  <si>
+    <t>1. Referred by Sonelal Gupta</t>
+  </si>
+  <si>
+    <t>Check on cadence workday site
+hrudwik@gmail.com</t>
+  </si>
+  <si>
+    <t>Zest Money</t>
+  </si>
+  <si>
+    <t>Expedia</t>
+  </si>
+  <si>
+    <t>1. Referred by Sakshi Singhal</t>
+  </si>
+  <si>
+    <t>On carre site of expedia workday
+hrudwik@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiggy </t>
+  </si>
+  <si>
+    <t>1. Satish Thakur</t>
+  </si>
+  <si>
+    <t>Yet to refer (Follow up wid him on Linkedin)</t>
+  </si>
+  <si>
+    <t>Need to Follow up</t>
+  </si>
+  <si>
+    <t>follow up</t>
+  </si>
+  <si>
+    <t>Auto Desk</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Ask Mukesh to refer</t>
+  </si>
+  <si>
+    <t>Ask her to follow up HR</t>
+  </si>
+  <si>
+    <t>Wait for few days</t>
+  </si>
+  <si>
+    <t>MicroFocus</t>
+  </si>
+  <si>
+    <t>Direct apply through workkday</t>
+  </si>
+  <si>
+    <t>On carre site of MicroFocus workday
+hrudwik@gmail.com</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>Tricentis</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>1. Contacted by recruiter  
+"Mayuri Girdhar"</t>
+  </si>
+  <si>
+    <t>Contacted on 2nd Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mayank Malukani
+</t>
+  </si>
+  <si>
+    <t>HR responded, and collected my current offer details.
+I askd to match salary.
+I am waiting for her call</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Dream11</t>
+  </si>
+  <si>
+    <t>Kaajal HR mail n linkedin</t>
+  </si>
+  <si>
+    <t>follow up today</t>
+  </si>
+  <si>
+    <t>1. Reffed by Ramkrishna Kulkarni
+And Lead tring to get me an interview
+(Nitesh Dewani), (Manish Kumar Jha)</t>
+  </si>
+  <si>
+    <t>Applied for one position
+(follow up)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Round 1: Passed first written test (Apti + English)
+2. Round 2: Solved C++ assignment and submitted on 4th Jan 2019
+3. Round 3: Is completed, went average - good. Can be forwarded to nxt round.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fee Reimbusement for continued educaion?
+Ask Deeksha
+</t>
+  </si>
+  <si>
+    <t>Soroco</t>
+  </si>
+  <si>
+    <t>Failed in Hackerrank test</t>
+  </si>
+  <si>
+    <t>Rejected in Interview</t>
+  </si>
+  <si>
+    <t>1. 1st round done, went well (30mins round)
+2. 2 rounds completed at Oracle office on 11:30 AM -02:00 PM, Tuesday  (21st Jan)</t>
+  </si>
+  <si>
+    <t>(21st Jan)</t>
+  </si>
+  <si>
+    <t>1: Cleared Hackerrank.
+2. First round of interview is scheduled on 23 Jan (Thursday) (10 AM - 11:30 AM)</t>
+  </si>
+  <si>
+    <t>Need to follow up soon</t>
+  </si>
+  <si>
+    <t>Interview on 23rd Jan
+10 - 11:30 AM</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1. Gave written test, 
-All test casses passed.
+      <t xml:space="preserve">1. Cleared Hackerrank test
 </t>
     </r>
     <r>
@@ -113,201 +278,112 @@
     </r>
   </si>
   <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>Math Works</t>
-  </si>
-  <si>
-    <t>Check on career site
-hrudwik@yahoo.com</t>
-  </si>
-  <si>
-    <t>Check on career site
-hrudwik@yahoo.com,
-(login with MS account)</t>
-  </si>
-  <si>
-    <t>Multiple referrals
-1. Murali Krishna (3 jobs)
-2. Remind Mukesh Dhaker to refer on Monday (6th Jan)</t>
-  </si>
-  <si>
-    <t>1. Referred by Ashita gupta</t>
-  </si>
-  <si>
-    <t>Cadence</t>
-  </si>
-  <si>
-    <t>1. Referred by Sonelal Gupta</t>
-  </si>
-  <si>
-    <t>Check on cadence workday site
-hrudwik@gmail.com</t>
-  </si>
-  <si>
-    <t>Zest Money</t>
-  </si>
-  <si>
-    <t>1. Lokender sent my resume to the recruiter</t>
-  </si>
-  <si>
-    <t>Expedia</t>
-  </si>
-  <si>
-    <t>1. Referred by Sakshi Singhal</t>
-  </si>
-  <si>
-    <t>On carre site of expedia workday
-hrudwik@gmail.com</t>
-  </si>
-  <si>
-    <t>1. Referred by Prashant Pandey</t>
-  </si>
-  <si>
-    <t>Check GS carrer site
-hrudwik@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiggy </t>
-  </si>
-  <si>
-    <t>1. Satish Thakur</t>
-  </si>
-  <si>
-    <t>Yet to refer (Follow up wid him on Linkedin)</t>
-  </si>
-  <si>
-    <t>Need to Follow up</t>
-  </si>
-  <si>
-    <t>follow up</t>
-  </si>
-  <si>
-    <t>Auto Desk</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Ask Mukesh to refer</t>
-  </si>
-  <si>
-    <t>Ask her to follow up HR</t>
-  </si>
-  <si>
-    <t>Wait for few days</t>
-  </si>
-  <si>
-    <t>Ask him to follow up HR
-(Anitha Iyappa)</t>
-  </si>
-  <si>
-    <t>MicroFocus</t>
-  </si>
-  <si>
-    <t>Direct apply through workkday</t>
-  </si>
-  <si>
-    <t>On carre site of MicroFocus workday
-hrudwik@gmail.com</t>
-  </si>
-  <si>
-    <t>Salesforce</t>
-  </si>
-  <si>
-    <t>Tricentis</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>1. Contacted by recruiter  
-"Mayuri Girdhar"</t>
-  </si>
-  <si>
-    <t>Contacted on 2nd Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Mayank Malukani
-</t>
-  </si>
-  <si>
-    <t>HR responded, and collected my current offer details.
-I askd to match salary.
-I am waiting for her call</t>
-  </si>
-  <si>
-    <t>Oracle</t>
-  </si>
-  <si>
-    <t>Dream11</t>
-  </si>
-  <si>
-    <t>Kaajal HR mail n linkedin</t>
-  </si>
-  <si>
-    <t>follow up today</t>
-  </si>
-  <si>
-    <t>1. Reffed by Ramkrishna Kulkarni
-And Lead tring to get me an interview
-(Nitesh Dewani), (Manish Kumar Jha)</t>
-  </si>
-  <si>
-    <t>Applied for one position
-(follow up)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Round 1: Passed first written test (Apti + English)
-2. Round 2: Solved C++ assignment and submitted on 4th Jan 2019
-3. Round 3: Is completed, went average - good. Can be forwarded to nxt round.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fee Reimbusement for continued educaion?
-Ask Deeksha
-</t>
-  </si>
-  <si>
-    <t>Waiting for HR response</t>
-  </si>
-  <si>
-    <t>Need to call HR</t>
-  </si>
-  <si>
-    <t>Soroco</t>
-  </si>
-  <si>
-    <t>1: Hackerrank test, yet to take</t>
-  </si>
-  <si>
-    <t>Asked me to take hackerrank test</t>
-  </si>
-  <si>
-    <t>Failed in Hackerrank test</t>
-  </si>
-  <si>
-    <t>Rejected in Interview</t>
-  </si>
-  <si>
-    <t>Cleared First round 
-2. Waiting for response from Hiring manager
+    <t>Coderpadround is scheduled on 27th Jan (4:30 PM)</t>
+  </si>
+  <si>
+    <t>1. Lokender sent my resume to the recruiter
+2. Got Hackerrank test link for SDE-1</t>
+  </si>
+  <si>
+    <t>19th - 20th Jan</t>
+  </si>
+  <si>
+    <t>Give Hackerrank tetst 25th Jan
+(DP questions)</t>
+  </si>
+  <si>
+    <t>GFG</t>
+  </si>
+  <si>
+    <t>Hiring contest for - Software Developer</t>
+  </si>
+  <si>
+    <t>21st Jan (generic mail)</t>
+  </si>
+  <si>
+    <t>Give Hackerrank tetst 25th Jan
+(DSA)</t>
+  </si>
+  <si>
+    <t>Active + timepass</t>
+  </si>
+  <si>
+    <t>SDE2 Opportunity with Amazon - Hyderabad</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Contactedly directly by Amazon recruiter
+Pasupulati, Geetha &lt;pasupg@amazon.com&gt;</t>
+  </si>
+  <si>
+    <t>Submitted form and replied to her email.
+Waiting for response</t>
+  </si>
+  <si>
+    <t>No Open Positions</t>
+  </si>
+  <si>
+    <t>SAP Labs</t>
+  </si>
+  <si>
+    <t>Contacted by Consultant</t>
+  </si>
+  <si>
+    <t>Applied and replied to her email.
+Waiting for response</t>
+  </si>
+  <si>
+    <t>Celigo</t>
+  </si>
+  <si>
+    <t>Software developer</t>
+  </si>
+  <si>
+    <t>Contactedly directly by Celigo recruiter
+over phone on 21st Jan</t>
+  </si>
+  <si>
+    <t>Awaiting response from recruiter
+(Less hopes as I recently gave interview)</t>
+  </si>
+  <si>
+    <t>Contacted by Consultant
+(isha.kathuria@naukri.com)</t>
+  </si>
+  <si>
+    <t>20th Jan
+(phone call)</t>
+  </si>
+  <si>
+    <t>21st Jan
+(mail)</t>
+  </si>
+  <si>
+    <t>17th Jan
 Sunita Melwani @mail n contacts</t>
   </si>
   <si>
     <t>1.. Round 1: Gave the interview. Went good, 
 Answered DS and Algo questions perfectly. However couldn't much answer few questions related to tech specific.
 Like diff b/w websocket and rest-api. Clousers in NodeJS, interitance in Python vs c++. (It is automation based company, they do automate testcases for other self-drife company)
-2. Gave 2nd rund. Went good but not very great. Asked genral questions related my current project.</t>
-  </si>
-  <si>
-    <t>1. 1st round done, went well (30mins round)
-2. multiple rouunds @Office (2Hrs). Scheduled on Tuesday 2-4 PM</t>
-  </si>
-  <si>
-    <t>Qualified 1st round.
-Waiting for 2nd round invite</t>
+2. Gave 2nd rund. Went good but not very great. Asked genral questions related my current project. Waiting for response from Hiring manager</t>
+  </si>
+  <si>
+    <t>Pubmatic</t>
+  </si>
+  <si>
+    <t>Gave 1st round on 21st jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15th Jan </t>
+  </si>
+  <si>
+    <t>Failed? Follow-up?</t>
+  </si>
+  <si>
+    <t>Active / Dead ?</t>
   </si>
 </sst>
 </file>
@@ -377,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -385,9 +461,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -437,6 +510,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,108 +862,190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="17.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="14" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="17.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="13" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="E5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="C6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>64</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -892,232 +1056,265 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="12.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="12.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="13" customWidth="1"/>
+    <col min="4" max="5" width="23.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="D11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="B16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>2</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1134,72 +1331,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21"/>
-    <col min="2" max="2" width="14.140625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="14.140625" style="20" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>14</v>
+      <c r="D1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="E3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
     </row>

--- a/Track/MyTracker.xlsx
+++ b/Track/MyTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="In Hand" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>Mentor Graphics</t>
   </si>
@@ -377,13 +377,18 @@
     <t>Gave 1st round on 21st jan</t>
   </si>
   <si>
-    <t xml:space="preserve">15th Jan </t>
-  </si>
-  <si>
-    <t>Failed? Follow-up?</t>
-  </si>
-  <si>
-    <t>Active / Dead ?</t>
+    <t>1. Contacted by Amazon recruiter
+2. Got Hackerrank test link for SDE-11</t>
+  </si>
+  <si>
+    <t>22nd Jan</t>
+  </si>
+  <si>
+    <t>Give Hackerrank tetst 25th Jan
+(DS n Algos)</t>
+  </si>
+  <si>
+    <t>Rejected after 2 rounds</t>
   </si>
 </sst>
 </file>
@@ -453,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -519,6 +524,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,47 +927,47 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>71</v>
+      <c r="B4" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -985,68 +993,51 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="B6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="B7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,14 +1260,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1323,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1329,7 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
@@ -1355,7 +1346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1375,7 +1366,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1395,12 +1386,50 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
+      <c r="B4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>